--- a/Mass Budget.xlsx
+++ b/Mass Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\Pathfinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AACFCAB-0D4C-4385-806E-4700E286B39B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F8B9F-A341-4E1B-82ED-D899ECB132B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{20E60837-8AB0-4DB2-9446-7117E09BC013}"/>
   </bookViews>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
